--- a/data/trans_camb/IMC_inf_MED_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_MED_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-15,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,08</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-24,39</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,2</t>
+          <t>-9,79</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 28,79</t>
+          <t>-16,11; 8,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 35,27</t>
+          <t>-27,81; -1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 20,86</t>
+          <t>-15,81; 7,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 15,96</t>
+          <t>-22,2; 6,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 15,86</t>
+          <t>-13,46; 4,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 15,98</t>
+          <t>-19,67; 1,48</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>-32,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-29,97%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,92%</t>
+          <t>-12,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,69%</t>
+          <t>-18,9%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 67,04</t>
+          <t>-30,75; 21,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,06; 75,73</t>
+          <t>-54,27; -4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 84,08</t>
+          <t>-26,04; 14,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 55,7</t>
+          <t>-36,57; 13,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 37,62</t>
+          <t>-24,15; 9,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,45; 36,65</t>
+          <t>-36,82; 2,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-14,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-13,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-11,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-13,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-9,29</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 8,7</t>
+          <t>-23,52; -6,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 9,0</t>
+          <t>-24,1; -2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 10,05</t>
+          <t>-20,46; -2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 0,89</t>
+          <t>-19,72; 3,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 4,65</t>
+          <t>-20,26; -7,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 2,72</t>
+          <t>-17,56; -0,6</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>-31,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>-20,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,06%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>-18,47%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 17,43</t>
+          <t>-50,64; -17,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 19,33</t>
+          <t>-54,74; -6,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 25,19</t>
+          <t>-32,68; -4,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 2,76</t>
+          <t>-32,0; 7,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 9,99</t>
+          <t>-37,66; -15,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 5,77</t>
+          <t>-33,6; -1,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,7</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-20,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,95</t>
+          <t>-14,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,6</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,45</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>-18,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -2,81</t>
+          <t>-20,09; -0,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 2,02</t>
+          <t>-38,87; -2,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,66; -6,08</t>
+          <t>-24,48; -3,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -2,37</t>
+          <t>-28,05; -3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,87; -6,72</t>
+          <t>-19,3; -4,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -1,49</t>
+          <t>-32,47; -8,02</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,22%</t>
+          <t>-23,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,12%</t>
+          <t>-46,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-35,53%</t>
+          <t>-28,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>-32,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,73%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>-39,51%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,16; -5,27</t>
+          <t>-41,31; -1,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 3,87</t>
+          <t>-80,6; -4,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,05; -15,89</t>
+          <t>-45,16; -7,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,43; -5,64</t>
+          <t>-53,01; -7,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,03; -14,3</t>
+          <t>-38,28; -11,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,45; -3,15</t>
+          <t>-66,96; -17,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,12</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,15</t>
+          <t>-18,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>-19,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>-18,72</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,61; -3,09</t>
+          <t>-18,28; 1,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,4; -2,9</t>
+          <t>-29,7; -5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,36; -0,32</t>
+          <t>-12,25; 6,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -0,08</t>
+          <t>-31,1; -6,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,24; -4,8</t>
+          <t>-12,18; 2,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -7,49</t>
+          <t>-26,85; -10,26</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-32,6%</t>
+          <t>-38,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,48%</t>
+          <t>-4,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,79%</t>
+          <t>-38,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-26,1%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-34,18%</t>
+          <t>-38,21%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,9; -6,78</t>
+          <t>-36,16; 3,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,92; -7,01</t>
+          <t>-57,21; -13,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,17; -0,77</t>
+          <t>-22,69; 14,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,5; -0,11</t>
+          <t>-57,14; -14,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,35; -11,08</t>
+          <t>-23,54; 4,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,0; -14,93</t>
+          <t>-52,7; -21,67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-10,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-19,13</t>
+          <t>-17,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-19,29</t>
+          <t>-12,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-19,3</t>
+          <t>-14,48</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 8,71</t>
+          <t>-15,41; -5,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-30,35; -6,32</t>
+          <t>-27,4; -10,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 2,47</t>
+          <t>-13,25; -3,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,01; -5,8</t>
+          <t>-18,8; -6,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 1,52</t>
+          <t>-12,74; -5,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,87; -10,38</t>
+          <t>-20,54; -9,67</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-22,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-37,79%</t>
+          <t>-38,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-15,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-40,74%</t>
+          <t>-23,54%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>-18,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-39,39%</t>
+          <t>-29,27%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 19,3</t>
+          <t>-32,92; -12,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -13,12</t>
+          <t>-60,09; -23,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 5,12</t>
+          <t>-23,46; -6,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-58,03; -12,19</t>
+          <t>-33,79; -12,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 3,38</t>
+          <t>-25,12; -11,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,97; -22,05</t>
+          <t>-41,25; -20,06</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-8,33</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-12,72</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-10,25</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-16,33</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-9,19</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-14,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-13,31; -3,43</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; -6,35</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; -5,28</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-21,54; -9,35</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; -5,83</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; -9,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-15,51%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-23,7%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-22,77%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-36,26%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-18,58%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-28,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-23,75; -6,23</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-33,56; -11,9</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-33,17; -12,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-46,59; -21,67</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-24,39; -12,18</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-36,69; -19,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
